--- a/biology/Botanique/Tetracarpaeaceae/Tetracarpaeaceae.xlsx
+++ b/biology/Botanique/Tetracarpaeaceae/Tetracarpaeaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Tétracarpaeacées regroupe des plantes dicotylédones ; elle ne comprend qu'un seul genre, ne comportant lui-même qu'une seule espèce :
 Tetracarpaea tasmannica (de).
@@ -513,11 +525,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le nom vient du genre type Tetracarpaea, dérivé du grec τετρα / tetra, quatre, et καρπός / carpos, fruit, en référence aux fruits dont les ovaires sont composées de quatre carpelles biens visibles et séparés. Quand il nomma la plante en 1840, le botaniste britannique écrivit : 
-« Ce magnifique petit arbuste est tout à fait nouveau pour moi : mais bien qu'il diffère par certains caractères, à la fois du feuillage et de la fructification, de l'Ordre des Cunoniaceae, je pense qu'il peut y être référencé. Les 4 carpelles, qui ont suggéré le nom générique, sont parfaitement libres même dans l'état le plus précoce de l'ovaire.  William Jackson Hooker[1]. »
+« Ce magnifique petit arbuste est tout à fait nouveau pour moi : mais bien qu'il diffère par certains caractères, à la fois du feuillage et de la fructification, de l'Ordre des Cunoniaceae, je pense qu'il peut y être référencé. Les 4 carpelles, qui ont suggéré le nom générique, sont parfaitement libres même dans l'état le plus précoce de l'ovaire.  William Jackson Hooker. »
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille n'existe pas.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 avr. 2010)[3], Angiosperm Phylogeny Website                        (28 avr. 2010)[4] et DELTA Angio           (28 avr. 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 avr. 2010), Angiosperm Phylogeny Website                        (28 avr. 2010) et DELTA Angio           (28 avr. 2010) :
 genre Tetracarpaea (en)</t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 avr. 2010)[3] et Angiosperm Phylogeny Website                        (28 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 avr. 2010) et Angiosperm Phylogeny Website                        (28 avr. 2010) :
 genre Tetracarpaea
 Tetracarpaea tasmanica</t>
         </is>
